--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_newextent\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC6BC5F-22A0-4F80-AAA6-92F25F504B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B50F93B-85DA-4EEB-948D-33A0FACF3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="34" activeTab="36" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="9036" tabRatio="954" firstSheet="29" activeTab="31" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessWeb" sheetId="53" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1183">
   <si>
     <t>username</t>
   </si>
@@ -3512,12 +3512,6 @@
     <t>FileUpload</t>
   </si>
   <si>
-    <t xml:space="preserve">List View::Folder upload in Files Section - Verify that user is able to choose a folder while uploading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tile View ::Folder upload in Files Section - Verify that user is able to choose a folder while uploading </t>
-  </si>
-  <si>
     <t>InputFolder</t>
   </si>
   <si>
@@ -3615,6 +3609,36 @@
   </si>
   <si>
     <t>Files section-&gt;tile view-&gt; pagination validation</t>
+  </si>
+  <si>
+    <t>Output1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile View-Folder upload in Files Section - Verify that user is able to choose a folder while uploading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List View-Folder upload in Files Section - Verify that user is able to choose a folder while uploading </t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>Test to create profile for DynamicInComplete - Duplicate</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for Optistruct - Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for RADIOSS-SMP - Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for RegularInComplete - Duplicate</t>
+  </si>
+  <si>
+    <t>Test to create profile for ShellScript - Duplicate</t>
   </si>
 </sst>
 </file>
@@ -3780,7 +3804,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3817,6 +3841,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -3935,9 +3963,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3975,7 +4003,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4081,7 +4109,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4223,7 +4251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7430,7 +7458,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A17:A23"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7502,13 +7530,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>304</v>
@@ -7516,27 +7544,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -7544,13 +7572,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -7558,13 +7586,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -7572,13 +7600,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>468</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -7586,41 +7614,41 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>468</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>361</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D13" t="s">
         <v>298</v>
@@ -7628,13 +7656,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>298</v>
@@ -7642,13 +7670,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
+      <c r="C15" s="9" t="s">
+        <v>452</v>
       </c>
       <c r="D15" t="s">
         <v>298</v>
@@ -7656,13 +7684,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
+      <c r="C16" s="9" t="s">
+        <v>454</v>
       </c>
       <c r="D16" t="s">
         <v>298</v>
@@ -7670,69 +7698,69 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>30</v>
+        <v>470</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>452</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>461</v>
+        <v>1056</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>30</v>
+      <c r="C21" t="s">
+        <v>674</v>
       </c>
       <c r="D21" t="s">
         <v>304</v>
@@ -7740,41 +7768,41 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>1057</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>452</v>
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>674</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>1058</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>454</v>
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>674</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1056</v>
+        <v>459</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>674</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>304</v>
@@ -7782,27 +7810,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1057</v>
+        <v>448</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>674</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1058</v>
+        <v>450</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="s">
-        <v>674</v>
+      <c r="C26" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>298</v>
@@ -9254,10 +9282,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9869,6 +9897,121 @@
       </c>
       <c r="G26" s="13" t="s">
         <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -9896,7 +10039,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10035,13 +10178,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>623</v>
@@ -10049,13 +10192,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>623</v>
@@ -10063,35 +10206,35 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>618</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -10100,40 +10243,40 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -10142,35 +10285,35 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>619</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -10225,12 +10368,12 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -10239,7 +10382,7 @@
         <v>501</v>
       </c>
       <c r="D3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10253,7 +10396,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10267,7 +10410,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10281,7 +10424,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10295,7 +10438,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10309,7 +10452,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10323,7 +10466,7 @@
         <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10337,7 +10480,7 @@
         <v>501</v>
       </c>
       <c r="D10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10351,7 +10494,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10365,7 +10508,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10379,12 +10522,12 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -10393,7 +10536,7 @@
         <v>501</v>
       </c>
       <c r="D14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10407,7 +10550,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10421,7 +10564,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10435,12 +10578,12 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>43</v>
@@ -10449,7 +10592,7 @@
         <v>501</v>
       </c>
       <c r="D18" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10463,7 +10606,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10477,7 +10620,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10491,7 +10634,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10505,12 +10648,12 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -10519,12 +10662,12 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -10533,12 +10676,12 @@
         <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -10547,12 +10690,12 @@
         <v>454</v>
       </c>
       <c r="D25" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -10561,12 +10704,12 @@
         <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -10575,26 +10718,26 @@
         <v>470</v>
       </c>
       <c r="D27" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D28" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -10603,12 +10746,12 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -10617,12 +10760,12 @@
         <v>452</v>
       </c>
       <c r="D30" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -10631,7 +10774,7 @@
         <v>454</v>
       </c>
       <c r="D31" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10645,7 +10788,7 @@
         <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -10659,21 +10802,21 @@
         <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D34" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -10687,7 +10830,7 @@
         <v>254</v>
       </c>
       <c r="D35" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -10701,7 +10844,7 @@
         <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -10715,7 +10858,7 @@
         <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -10729,7 +10872,7 @@
         <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -10743,7 +10886,7 @@
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -10757,7 +10900,7 @@
         <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -11295,13 +11438,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -11532,8 +11675,8 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11871,7 +12014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>220</v>
       </c>
@@ -12492,7 +12635,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>169</v>
       </c>
@@ -12584,7 +12727,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="1.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>173</v>
       </c>
@@ -12630,7 +12773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>175</v>
       </c>
@@ -12745,7 +12888,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>345</v>
       </c>
@@ -12768,7 +12911,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>592</v>
       </c>
@@ -12788,18 +12931,18 @@
         <v>2</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>593</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>90</v>
+      <c r="C55" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>11</v>
@@ -12810,19 +12953,19 @@
       <c r="F55" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>593</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>90</v>
+      <c r="C56" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>11</v>
@@ -12833,11 +12976,11 @@
       <c r="F56" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>915</v>
       </c>
@@ -12860,7 +13003,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>916</v>
       </c>
@@ -12883,7 +13026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>917</v>
       </c>
@@ -12906,7 +13049,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>918</v>
       </c>
@@ -12929,7 +13072,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>918</v>
       </c>
@@ -12952,7 +13095,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>919</v>
       </c>
@@ -12975,7 +13118,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>920</v>
       </c>
@@ -12998,7 +13141,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>921</v>
       </c>
@@ -13021,7 +13164,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>922</v>
       </c>
@@ -13044,7 +13187,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>923</v>
       </c>
@@ -13067,7 +13210,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>918</v>
       </c>
@@ -13090,7 +13233,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>924</v>
       </c>
@@ -13113,7 +13256,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>925</v>
       </c>
@@ -13136,7 +13279,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>926</v>
       </c>
@@ -13159,7 +13302,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>927</v>
       </c>
@@ -13182,7 +13325,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>928</v>
       </c>
@@ -13205,7 +13348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>929</v>
       </c>
@@ -13228,7 +13371,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>930</v>
       </c>
@@ -13251,7 +13394,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>931</v>
       </c>
@@ -13274,7 +13417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>932</v>
       </c>
@@ -13297,7 +13440,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>933</v>
       </c>
@@ -13320,7 +13463,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>933</v>
       </c>
@@ -13343,7 +13486,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>934</v>
       </c>
@@ -13366,7 +13509,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>935</v>
       </c>
@@ -13389,7 +13532,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>936</v>
       </c>
@@ -13412,7 +13555,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>937</v>
       </c>
@@ -13435,7 +13578,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>938</v>
       </c>
@@ -13458,7 +13601,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>939</v>
       </c>
@@ -13481,7 +13624,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>940</v>
       </c>
@@ -13504,7 +13647,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>940</v>
       </c>
@@ -13527,7 +13670,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>941</v>
       </c>
@@ -13550,7 +13693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>942</v>
       </c>
@@ -13573,7 +13716,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>943</v>
       </c>
@@ -13596,7 +13739,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>944</v>
       </c>
@@ -13619,7 +13762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>945</v>
       </c>
@@ -13676,7 +13819,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13776,13 +13919,13 @@
         <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>1104</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
         <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>1102</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13812,7 +13955,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B10" t="s">
         <v>545</v>
@@ -13821,7 +13964,7 @@
         <v>386</v>
       </c>
       <c r="D10" t="s">
-        <v>670</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -14293,7 +14436,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -14426,10 +14569,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B13" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -14466,26 +14609,26 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B18" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B20" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -15037,8 +15180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E8DB6-985C-4A4D-B54D-754B4AB198CD}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15075,7 +15218,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>1173</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -15109,7 +15252,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>1173</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -15143,7 +15286,7 @@
         <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>1173</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -15194,7 +15337,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>1173</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -16665,7 +16808,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16683,7 +16826,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -16694,7 +16837,7 @@
         <v>1138</v>
       </c>
       <c r="C2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -16702,21 +16845,21 @@
         <v>1139</v>
       </c>
       <c r="B3" t="s">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="C3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -16724,10 +16867,10 @@
         <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -16735,10 +16878,10 @@
         <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C6" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -16746,10 +16889,10 @@
         <v>1139</v>
       </c>
       <c r="B7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C7" t="s">
         <v>1141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1143</v>
       </c>
     </row>
   </sheetData>
